--- a/2022-11-13t17_44_57.765z_cure_dao.xlsx
+++ b/2022-11-13t17_44_57.765z_cure_dao.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB489984-43C2-4E5F-8A99-34C966AD95B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05F420E-B2BF-40C1-AA44-EDAFA9B87241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15105" yWindow="45" windowWidth="13770" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="55">
   <si>
     <t>Martijn van den Broek, MJ Famyfuerza</t>
   </si>
@@ -100,21 +100,6 @@
   </si>
   <si>
     <t>URGENT</t>
-  </si>
-  <si>
-    <t>Dmitri Konash</t>
-  </si>
-  <si>
-    <t>31wgu7f</t>
-  </si>
-  <si>
-    <t>Potential customer meetings+prep and BreathNow link</t>
-  </si>
-  <si>
-    <t>41h</t>
-  </si>
-  <si>
-    <t>CLOSED [WON]</t>
   </si>
   <si>
     <t>Andreas Melhede</t>
@@ -656,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,7 +766,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H5" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I5" s="1">
         <f>1502.0656-28/1</f>
@@ -871,7 +856,7 @@
         <v>20</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="L8" s="1">
         <v>3</v>
@@ -891,11 +876,11 @@
         <v>24</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9">
-        <f>SUM(I8)</f>
-        <v>53.645199999999996</v>
+        <v>54</v>
+      </c>
+      <c r="I9" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -969,13 +954,13 @@
         <v>18</v>
       </c>
       <c r="I11" s="1">
-        <v>2984.9722000000002</v>
+        <v>215.98579333333333</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>27</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="L11" s="1">
         <v>4</v>
@@ -983,88 +968,121 @@
       <c r="M11" s="1">
         <v>5</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>18</v>
+      <c r="N11" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="O11" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12">
-        <f>SUM(I11)</f>
-        <v>2984.9722000000002</v>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="1">
+        <v>39.850720000000003</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="1">
+        <v>5</v>
+      </c>
+      <c r="M12" s="1">
+        <v>5</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="1">
+        <v>7208.8292033333328</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="1">
         <v>4</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="M13" s="1">
         <v>5</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>15</v>
+      <c r="N13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>18</v>
@@ -1073,22 +1091,22 @@
         <v>18</v>
       </c>
       <c r="I14" s="1">
-        <v>215.98579333333333</v>
+        <v>0</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="1">
-        <v>4</v>
-      </c>
-      <c r="M14" s="1">
-        <v>5</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>21</v>
@@ -1096,20 +1114,22 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>18</v>
@@ -1118,22 +1138,22 @@
         <v>18</v>
       </c>
       <c r="I15" s="1">
-        <v>39.850720000000003</v>
+        <v>0</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L15" s="1">
-        <v>5</v>
-      </c>
-      <c r="M15" s="1">
-        <v>5</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="O15" s="5" t="s">
         <v>21</v>
@@ -1141,20 +1161,22 @@
     </row>
     <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="D16" s="1" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>18</v>
@@ -1163,22 +1185,22 @@
         <v>18</v>
       </c>
       <c r="I16" s="1">
-        <v>7208.8292033333328</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L16" s="1">
-        <v>4</v>
-      </c>
-      <c r="M16" s="1">
-        <v>5</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="O16" s="5" t="s">
         <v>21</v>
@@ -1186,22 +1208,22 @@
     </row>
     <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>18</v>
@@ -1231,153 +1253,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="6" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H18" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H21" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I21">
-        <f>SUM(I14:I20)</f>
+      <c r="I18">
+        <f>SUM(I11:I17)</f>
         <v>7464.6657166666664</v>
       </c>
     </row>
